--- a/Assets/ExcelDatas/Character.xlsx
+++ b/Assets/ExcelDatas/Character.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D938B66F-3898-4E98-9284-1F7D4160CAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Wizard</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackDamage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,6 +71,26 @@
   </si>
   <si>
     <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLV</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spum&gt;Spum_Units&gt;Character_Main_Hero1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루비</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -201,9 +217,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:H4" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A3:H4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}" name="표2" displayName="표2" ref="A3:K4" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A3:K4" xr:uid="{A4B3A5CF-EF69-406A-BEF8-9C48AB53909F}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{37C7C105-E27E-49AA-98C8-F599797BFDFA}" name="Name" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{117AF7E1-21A6-4426-8745-5287AFCE2ACC}" name="ID" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{109E1E6E-4C89-4DF6-881B-3A81934D9BB5}" name="AttackDamage"/>
@@ -212,6 +228,9 @@
     <tableColumn id="5" xr3:uid="{4D166232-357D-4EBE-86BB-48D7FF326B9F}" name="MoveSpeed"/>
     <tableColumn id="6" xr3:uid="{35089020-614D-4902-B564-E6925801465A}" name="CriticalPercent"/>
     <tableColumn id="7" xr3:uid="{F737CEF5-B367-4AFD-90DA-25D3DBCC841A}" name="CriticalDamage"/>
+    <tableColumn id="9" xr3:uid="{DC4E3845-0ED0-4615-BB45-F00B344AD551}" name="HP"/>
+    <tableColumn id="10" xr3:uid="{98302034-D0BF-4704-9CB5-915E7AB127AF}" name="MaxLV"/>
+    <tableColumn id="11" xr3:uid="{F78891EC-D852-4678-A378-5CBD91EBA567}" name="Prefab"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,22 +533,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CBF55-05E2-4044-A2FE-3395B47E08EF}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" customWidth="1"/>
-    <col min="4" max="6" width="13.3984375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,68 +578,95 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -631,6 +682,15 @@
       </c>
       <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/Character.xlsx
+++ b/Assets/ExcelDatas/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2D2BF-5F02-4A81-9CBB-89A873DBD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>루비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +540,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -620,7 +624,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">

--- a/Assets/ExcelDatas/Character.xlsx
+++ b/Assets/ExcelDatas/Character.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C2D2BF-5F02-4A81-9CBB-89A873DBD60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56847533-708B-4E30-AD48-382DA5838C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>루비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +536,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -624,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">

--- a/Assets/ExcelDatas/Character.xlsx
+++ b/Assets/ExcelDatas/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dunn\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E3759B-0B02-4BBE-BD4E-8DF22A42A52B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>루비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -536,24 +540,24 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.09765625" customWidth="1"/>
+    <col min="9" max="9" width="5.8125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -620,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -658,7 +662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -669,22 +673,22 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>1500</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J4">
         <v>30</v>

--- a/Assets/ExcelDatas/Character.xlsx
+++ b/Assets/ExcelDatas/Character.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53E3759B-0B02-4BBE-BD4E-8DF22A42A52B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{BD3F6888-DEB1-4A79-ABC4-3D758F3543BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DE36F37-9E57-4479-8A01-1BECD7026EA1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{3A0FD73B-EE01-4ABF-87A2-83BD2FE71AFC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CharacterTable" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -218,6 +218,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{477CBF55-05E2-4044-A2FE-3395B47E08EF}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
